--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44217</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44781</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43372</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43448</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>43472</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43480</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43489</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43530</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43533</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43533</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43535</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43535</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43559</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43567</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43599</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43606</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43606</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43627</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43685</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43706</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43773</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43782</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43782</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43787</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43790</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43795</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43795</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43801</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43866</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43899</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43908</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43915</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43928</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43929</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43930</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43930</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43935</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43935</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43952</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43955</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43955</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43964</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43979</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43979</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43984</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43984</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43993</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43993</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43997</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44007</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44007</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44069</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44070</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>44084</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>44088</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44092</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44095</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44096</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44098</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44098</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44112</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44113</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44140</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44140</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44140</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44145</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44181</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44181</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44181</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44181</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44183</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44187</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44209</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44210</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44243</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44293</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44293</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44341</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44341</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>44361</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44420</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44446</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44466</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44551</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44566</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44599</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44627</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44642</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44767</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44789</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44789</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44859</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44924</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44925</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44925</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>44967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44967</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44974</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44987</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45145</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45145</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45155</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>45155</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44217</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44781</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43372</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43448</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>43472</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43480</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43489</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43530</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43533</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43533</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43535</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43535</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43559</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43567</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43599</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43606</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43606</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43627</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43685</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43706</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43773</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43782</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43782</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43787</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43790</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43795</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43795</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43801</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43866</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43899</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43908</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43915</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43928</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43929</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43930</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43930</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43935</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43935</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43952</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43955</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43955</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43964</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43979</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43979</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43984</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43984</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43993</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43993</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43997</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44007</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44007</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44069</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44070</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>44084</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>44088</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44092</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44095</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44096</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44098</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44098</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44112</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44113</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44140</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44140</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44140</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44145</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44181</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44181</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44181</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44181</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44183</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44187</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44209</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44210</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44243</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44293</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44293</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44341</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44341</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>44361</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44420</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44446</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44466</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44551</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44566</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44599</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44627</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44642</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44767</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44789</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44789</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44859</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44924</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44925</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44925</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>44967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44967</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44974</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44987</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45145</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45145</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45155</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>45155</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44217</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44781</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43372</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43448</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>43472</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43480</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43489</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43530</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43533</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43533</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43535</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43535</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43559</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43567</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43599</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43606</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43606</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43627</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43685</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43706</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43773</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43782</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43782</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43787</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43790</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43795</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43795</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43801</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43866</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43899</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43908</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43915</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43928</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43929</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43930</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43930</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43935</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43935</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43952</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43955</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43955</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43964</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43979</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43979</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43984</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43984</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43993</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43993</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43997</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44007</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44007</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44069</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44070</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>44084</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>44088</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44092</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44095</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44096</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44098</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44098</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44112</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44113</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44140</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44140</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44140</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44145</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44181</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44181</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44181</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44181</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44183</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44187</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44209</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44210</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44243</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44293</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44293</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44341</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44341</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>44361</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44420</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44446</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44466</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44551</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44566</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44599</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44627</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44642</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44767</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44789</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44789</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44859</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44924</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44925</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44925</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>44967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44967</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44974</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44987</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45145</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45145</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45155</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>45155</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44217</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44781</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43372</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43448</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>43472</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43480</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43489</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43530</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43533</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43533</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43535</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43535</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43559</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43567</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43599</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43606</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43606</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43627</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43685</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43706</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43773</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43782</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43782</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43787</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43790</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43795</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43795</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43801</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43866</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43899</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43908</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43915</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43928</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43929</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43930</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43930</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43935</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43935</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43952</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43955</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43955</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43964</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43979</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43979</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43984</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43984</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43993</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43993</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43997</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44007</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44007</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44069</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44070</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>44084</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>44088</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44092</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44095</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44096</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44098</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44098</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44112</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44113</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44140</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44140</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44140</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44145</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44181</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44181</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44181</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44181</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44183</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44187</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44209</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44210</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44243</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44293</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44293</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44341</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44341</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>44361</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44420</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44446</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44466</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44551</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44566</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44599</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44627</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44642</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44767</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44789</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44789</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44859</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44924</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44925</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44925</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>44967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44967</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44974</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44987</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45145</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45145</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45155</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>45155</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44217</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44781</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43372</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43448</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>43472</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43480</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43489</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43530</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43533</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43533</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43535</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43535</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43559</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43567</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43599</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43606</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43606</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43627</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43685</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43706</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43773</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43782</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43782</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43787</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43790</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43795</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43795</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43801</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43866</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43899</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43908</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43915</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43928</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43929</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43930</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43930</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43935</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43935</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43952</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43955</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43955</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43964</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43979</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43979</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43984</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43984</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43993</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43993</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43997</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44007</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44007</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44069</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44070</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>44084</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>44088</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44092</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44095</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44096</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44098</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44098</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44112</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44113</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44140</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44140</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44140</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44145</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44181</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44181</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44181</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44181</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44183</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44187</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44209</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44210</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44243</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44293</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44293</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44341</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44341</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>44361</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44420</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44446</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44466</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44551</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44566</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44599</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44627</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44642</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44767</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44789</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44789</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44859</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44924</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44925</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44925</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>44967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44967</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44974</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44987</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45145</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45145</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45155</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>45155</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44217</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44781</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43372</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43448</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>43472</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43480</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43489</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43530</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43533</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43533</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43535</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43535</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43559</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43567</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43599</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43606</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43606</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43627</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43685</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43706</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43773</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43782</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43782</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43787</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43790</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43795</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43795</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43801</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43866</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43899</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43908</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43915</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43928</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43929</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43930</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43930</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43935</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43935</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43952</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43955</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43955</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43964</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43979</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43979</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43984</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43984</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43993</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43993</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43997</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44007</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44007</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44069</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44070</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>44084</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>44088</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44092</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44095</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44096</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44098</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44098</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44112</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44113</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44140</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44140</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44140</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44145</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44181</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44181</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44181</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44181</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44183</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44187</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44209</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44210</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44243</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44293</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44293</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44341</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44341</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>44361</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44420</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44446</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44466</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44551</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44566</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44599</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44627</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44642</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44767</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44789</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44789</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44859</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44924</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44925</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44925</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>44967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44967</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44974</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44987</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45145</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45145</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45155</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>45155</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44217</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44781</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43372</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43448</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>43472</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43480</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43489</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43530</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43533</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43533</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43535</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43535</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43559</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43567</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43599</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43606</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43606</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43627</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43685</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43706</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43773</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43782</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43782</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43787</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43790</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43795</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43795</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43801</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43866</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43899</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43908</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43915</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43928</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43929</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43930</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43930</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43935</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43935</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43952</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43955</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43955</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43964</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43979</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43979</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43984</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43984</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43993</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43993</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43997</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44007</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44007</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44069</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44070</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>44084</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>44088</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44092</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44095</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44096</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44098</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44098</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44112</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44113</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44140</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44140</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44140</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44145</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44181</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44181</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44181</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44181</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44183</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44187</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44209</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44210</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44243</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44293</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44293</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44341</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44341</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>44361</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44420</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44446</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44466</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44551</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44566</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44599</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44627</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44642</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44767</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44789</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44789</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44859</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44924</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44925</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44925</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>44967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44967</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44974</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44987</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45145</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45145</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45155</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>45155</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44217</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44781</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43372</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43448</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>43472</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43480</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43489</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43530</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43533</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43533</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43535</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43535</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43559</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43567</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43599</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43606</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43606</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43627</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43685</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43706</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43773</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43782</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43782</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43787</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43790</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43795</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43795</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43801</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43866</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43899</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43908</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43915</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43928</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43929</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43930</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43930</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43935</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43935</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43952</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43955</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43955</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43964</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43979</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43979</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43984</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43984</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43993</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43993</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43997</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44007</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44007</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44069</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44070</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>44084</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>44088</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44092</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44095</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44096</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44098</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44098</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44112</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44113</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44140</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44140</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44140</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44145</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44181</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44181</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44181</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44181</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44183</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44187</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44209</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44210</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44243</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44293</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44293</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44341</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44341</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>44361</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44420</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44446</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44466</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44551</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44566</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44599</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44627</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44642</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44767</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44789</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44789</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44859</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44924</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44925</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44925</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>44967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44967</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44974</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44987</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45145</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45145</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45155</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>45155</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44217</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44781</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43372</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43448</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>43472</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43480</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43489</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43530</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43533</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43533</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43535</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43535</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43559</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43567</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43599</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43606</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43606</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43627</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43685</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43706</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43773</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43782</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43782</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43787</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43790</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43795</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43795</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43801</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43866</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43899</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43908</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43915</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43928</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43929</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43930</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43930</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43935</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43935</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43952</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43955</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43955</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43964</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43979</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43979</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43984</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43984</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43993</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43993</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43997</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44007</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44007</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44069</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44070</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>44084</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>44088</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44092</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44095</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44096</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44098</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44098</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44112</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44113</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44140</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44140</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44140</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44145</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44181</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44181</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44181</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44181</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44183</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44187</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44209</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44210</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44243</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44293</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44293</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44341</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44341</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>44361</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44420</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44446</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44466</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44551</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44566</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44599</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44627</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44642</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44767</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44789</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44789</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44859</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44924</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44925</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44925</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>44967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44967</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44974</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44987</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45145</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45145</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45155</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>45155</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,31 +629,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/artfynd/A 15284-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/artfynd/A 15284-2020.xlsx", "A 15284-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/kartor/A 15284-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/kartor/A 15284-2020.png", "A 15284-2020")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/knärot/A 15284-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/knärot/A 15284-2020.png", "A 15284-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/klagomål/A 15284-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/klagomål/A 15284-2020.docx", "A 15284-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/klagomålsmail/A 15284-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/klagomålsmail/A 15284-2020.docx", "A 15284-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/tillsyn/A 15284-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/tillsyn/A 15284-2020.docx", "A 15284-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/tillsynsmail/A 15284-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/tillsynsmail/A 15284-2020.docx", "A 15284-2020")</f>
         <v/>
       </c>
     </row>
@@ -667,7 +667,7 @@
         <v>44217</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,27 +719,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/artfynd/A 3329-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/artfynd/A 3329-2021.xlsx", "A 3329-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/kartor/A 3329-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/kartor/A 3329-2021.png", "A 3329-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/klagomål/A 3329-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/klagomål/A 3329-2021.docx", "A 3329-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/klagomålsmail/A 3329-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/klagomålsmail/A 3329-2021.docx", "A 3329-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/tillsyn/A 3329-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/tillsyn/A 3329-2021.docx", "A 3329-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/tillsynsmail/A 3329-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/tillsynsmail/A 3329-2021.docx", "A 3329-2021")</f>
         <v/>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>44781</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,27 +805,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/artfynd/A 32280-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/artfynd/A 32280-2022.xlsx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/kartor/A 32280-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/kartor/A 32280-2022.png", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/klagomål/A 32280-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/klagomål/A 32280-2022.docx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/klagomålsmail/A 32280-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/klagomålsmail/A 32280-2022.docx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/tillsyn/A 32280-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/tillsyn/A 32280-2022.docx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/tillsynsmail/A 32280-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/tillsynsmail/A 32280-2022.docx", "A 32280-2022")</f>
         <v/>
       </c>
     </row>
@@ -839,7 +839,7 @@
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,27 +890,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/artfynd/A 49969-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/artfynd/A 49969-2022.xlsx", "A 49969-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/kartor/A 49969-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/kartor/A 49969-2022.png", "A 49969-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/klagomål/A 49969-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/klagomål/A 49969-2022.docx", "A 49969-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/klagomålsmail/A 49969-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/klagomålsmail/A 49969-2022.docx", "A 49969-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/tillsyn/A 49969-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/tillsyn/A 49969-2022.docx", "A 49969-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/tillsynsmail/A 49969-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LIDKOPING/tillsynsmail/A 49969-2022.docx", "A 49969-2022")</f>
         <v/>
       </c>
     </row>
@@ -924,7 +924,7 @@
         <v>43340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43372</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43448</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>43472</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43480</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43489</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43530</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43533</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43533</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43535</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43535</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43559</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43567</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43599</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43606</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43606</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43627</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43685</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43706</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43773</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43782</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43782</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43787</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43790</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43795</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43795</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43801</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43866</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43899</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43908</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43915</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43928</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43929</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43930</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43930</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43935</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43935</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43952</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43955</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43955</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43964</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43979</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43979</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43984</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43984</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43993</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43993</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43997</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44007</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44007</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44069</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44070</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>44084</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>44088</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44092</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44095</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44096</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44098</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44098</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44112</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44113</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44140</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44140</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44140</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44145</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44181</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44181</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44181</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44181</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44183</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44187</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44209</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44210</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44243</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44293</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44293</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44341</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44341</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>44361</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44420</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44446</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44466</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44551</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44566</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44599</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44627</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44642</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44767</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44789</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44789</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44859</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44924</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44925</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44925</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>44967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44967</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44974</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44987</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45145</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45145</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45155</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>45155</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44217</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44781</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43372</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43448</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>43472</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43480</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43489</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43530</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43533</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43533</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43535</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43535</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43559</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43567</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43599</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43606</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43606</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43627</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43685</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43706</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43773</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43782</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43782</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43787</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43790</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43795</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43795</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43801</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43866</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43899</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43908</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43915</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43928</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43929</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43930</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43930</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43935</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43935</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43952</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43955</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43955</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43964</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43979</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43979</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43984</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43984</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43993</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43993</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43997</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44007</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44007</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44069</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44070</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>44084</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>44088</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44092</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44095</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44096</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44098</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44098</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44112</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44113</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44140</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44140</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44140</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44145</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44181</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44181</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44181</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44181</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44183</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44187</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44209</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44210</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44243</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44293</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44293</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44341</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44341</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>44361</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44420</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44446</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44466</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44551</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44566</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44599</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44627</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44642</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44767</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44789</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44789</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44859</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44924</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44925</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44925</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>44967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44967</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44974</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44987</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45145</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45145</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45155</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>45155</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44217</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44781</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43372</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43448</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>43472</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43480</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43489</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43530</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43533</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43533</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43535</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43535</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43559</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43567</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43599</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43606</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43606</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43627</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43685</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43706</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43773</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43782</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43782</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43787</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43790</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43795</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43795</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43801</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43866</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43899</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43908</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43915</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43928</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43929</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43930</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43930</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43935</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43935</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43952</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43955</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43955</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43964</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43979</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43979</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43984</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43984</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43993</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43993</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43997</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44007</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44007</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44069</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44070</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>44084</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>44088</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44092</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44095</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44096</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44098</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44098</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44112</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44113</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44140</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44140</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44140</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44145</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44181</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44181</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44181</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44181</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44183</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44187</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44209</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44210</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44243</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44293</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44293</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44341</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44341</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>44361</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44420</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44446</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44466</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44551</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44566</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44599</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44627</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44642</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44767</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44789</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44789</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44859</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44924</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44925</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44925</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>44967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44967</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44974</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44987</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45145</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45145</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45155</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>45155</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44217</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44781</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43372</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43448</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>43472</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43480</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43489</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43530</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43533</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43533</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43535</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43535</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43559</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43567</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43599</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43606</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43606</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43627</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43685</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43706</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43773</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43782</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43782</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43787</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43790</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43795</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43795</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43801</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43866</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43899</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43908</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43915</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43928</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43929</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43930</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43930</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43935</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43935</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43952</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43955</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43955</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43964</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43979</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43979</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43984</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43984</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43993</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43993</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43997</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44007</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44007</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44069</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44070</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>44084</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>44088</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44092</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44095</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44096</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44098</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44098</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44112</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44113</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44140</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44140</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44140</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44145</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44181</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44181</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44181</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44181</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44183</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44187</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44209</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44210</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44243</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44293</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44293</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44341</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44341</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>44361</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44420</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44446</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44466</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44551</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44566</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44599</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44627</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44642</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44767</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44789</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44789</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44859</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44924</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44925</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44925</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>44967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44967</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44974</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44987</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45145</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45145</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45155</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>45155</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44217</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44781</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43372</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43448</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>43472</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43480</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43489</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43530</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43533</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43533</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43535</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43535</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43559</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43567</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43599</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43606</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43606</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43627</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43685</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43706</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43773</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43782</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43782</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43787</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43790</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43795</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43795</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43801</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43866</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43899</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43908</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43915</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43928</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43929</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43930</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43930</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43935</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43935</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43952</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43955</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43955</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43964</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43979</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43979</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43984</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43984</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43993</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43993</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43997</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44007</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44007</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44069</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44070</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>44084</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>44088</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44092</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44095</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44096</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44098</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44098</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44112</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44113</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44140</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44140</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44140</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44145</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44181</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44181</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44181</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44181</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44183</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44187</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44209</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44210</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44243</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44293</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44293</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44341</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44341</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>44361</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44420</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44446</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44466</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44551</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44566</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44599</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44627</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44642</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44767</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44789</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44789</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44859</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44924</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44925</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44925</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>44967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44967</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44974</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44987</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45145</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45145</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45155</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>45155</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y238"/>
+  <dimension ref="A1:Y239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44217</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44781</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43372</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43448</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>43472</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43480</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43489</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43530</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43533</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43533</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43535</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43535</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43559</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43567</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43599</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43606</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43606</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43627</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43685</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43706</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43773</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43782</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43782</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43787</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43790</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43795</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43795</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43801</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43866</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43899</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43908</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43915</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43928</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43929</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43930</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43930</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43935</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43935</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43952</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43955</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43955</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43964</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43979</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43979</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43984</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43984</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43993</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43993</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43997</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44007</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44007</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44069</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44070</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>44084</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>44088</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44092</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44095</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44096</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44098</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44098</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44112</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44113</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44140</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44140</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44140</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44145</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44181</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44181</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44181</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44181</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44183</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44187</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44209</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44210</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44243</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44293</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44293</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44341</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44341</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>44361</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44420</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44446</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44466</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44551</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44566</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44599</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44627</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44642</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44767</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44789</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44789</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44859</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44924</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44925</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44925</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>44967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44967</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44974</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44987</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45145</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45145</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45155</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
       </c>
       <c r="R237" s="2" t="inlineStr"/>
     </row>
-    <row r="238">
+    <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
           <t>A 37098-2023</t>
@@ -14268,7 +14268,7 @@
         <v>45155</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14314,6 +14314,63 @@
         <v>0</v>
       </c>
       <c r="R238" s="2" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>A 45701-2023</t>
+        </is>
+      </c>
+      <c r="B239" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C239" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0</v>
+      </c>
+      <c r="O239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R239" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44217</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44781</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43372</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43448</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>43472</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43480</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43489</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43530</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43533</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43533</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43535</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43535</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43559</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43567</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43599</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43606</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43606</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43627</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43685</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43706</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43773</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43782</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43782</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43787</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43790</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43795</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43795</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43801</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43866</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43899</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43908</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43915</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43928</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43929</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43930</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43930</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43935</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43935</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43952</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43955</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43955</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43964</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43979</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43979</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43984</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43984</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43993</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43993</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43997</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44007</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44007</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44069</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44070</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>44084</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>44088</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44092</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44095</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44096</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44098</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44098</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44112</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44113</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44140</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44140</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44140</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44145</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44181</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44181</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44181</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44181</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44183</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44187</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44209</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44210</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44243</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44293</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44293</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44341</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44341</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>44361</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44420</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44446</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44466</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44551</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44566</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44599</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44627</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44642</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44767</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44789</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44789</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44859</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44924</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44925</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44925</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>44967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44967</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44974</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44987</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45145</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45145</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45155</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>45155</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>45195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44217</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44781</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43372</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43448</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>43472</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43480</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43489</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43530</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43533</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43533</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43535</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43535</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43559</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43567</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43599</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43606</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43606</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43627</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43685</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43706</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43773</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43782</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43782</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43787</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43790</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43795</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43795</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43801</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43866</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43899</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43908</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43915</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43928</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43929</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43930</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43930</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43935</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43935</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43952</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43955</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43955</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43964</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43979</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43979</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43984</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43984</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43993</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43993</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43997</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44007</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44007</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44069</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44070</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>44084</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>44088</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44092</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44095</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44096</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44098</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44098</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44112</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44113</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44140</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44140</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44140</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44145</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44181</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44181</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44181</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44181</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44183</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44187</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44209</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44210</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44243</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44293</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44293</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44341</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44341</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>44361</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44420</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44446</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44466</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44551</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44566</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44599</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44627</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44642</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44767</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44789</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44789</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44859</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44924</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44925</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44925</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>44967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44967</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44974</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44987</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45145</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45145</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45155</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>45155</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>45195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44217</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44781</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43372</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43448</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>43448</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>43472</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43480</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43489</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43530</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43533</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43533</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43535</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43535</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43559</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43567</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43567</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43599</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43606</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43606</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43608</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43614</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43627</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43685</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43703</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43706</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43711</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43727</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43773</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43782</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43782</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43787</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43790</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43795</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43795</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43801</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43854</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43866</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43867</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43899</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43908</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43915</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43928</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43929</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43930</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43930</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43935</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43935</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43952</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43955</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43955</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43964</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43971</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43979</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43979</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43984</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43984</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43993</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43993</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43997</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44007</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44007</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>44069</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44070</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>44084</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>44088</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44092</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44095</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44096</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44098</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44098</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44112</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44113</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44137</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44140</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44140</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44140</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44145</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44181</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44181</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44181</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44181</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44183</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44187</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44209</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44210</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44243</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44293</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44293</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44341</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44341</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>44361</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44420</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44446</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44466</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44551</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44566</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44599</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44627</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44642</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44767</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44789</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44789</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44859</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44924</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44925</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44925</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>44967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44967</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44974</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44987</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45075</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45145</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45145</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45155</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>45155</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>45195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
